--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_0.003_scores.xlsx
@@ -115,15 +115,15 @@
     <t>dear</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -136,10 +136,10 @@
     <t>save</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -1299,25 +1299,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.748898678414097</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L23">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1325,25 +1325,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.7450980392156863</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1351,25 +1351,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.7317073170731707</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1481,25 +1481,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.656441717791411</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="L30">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M30">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1507,25 +1507,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.6421052631578947</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L31">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M31">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="10:17">
